--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6400" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -909,10 +921,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -956,28 +968,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1002,28 +1014,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1082,10 +1094,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1129,28 +1141,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1175,28 +1187,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1284,10 +1296,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1331,28 +1343,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1377,28 +1389,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1457,10 +1469,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1504,28 +1516,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1550,28 +1562,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1630,10 +1642,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1677,28 +1689,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1723,28 +1735,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1803,10 +1815,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1850,28 +1862,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1896,28 +1908,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2034,10 +2046,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2081,28 +2093,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2127,28 +2139,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2207,10 +2219,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2254,28 +2266,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2300,28 +2312,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2380,10 +2392,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2427,28 +2439,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2473,28 +2485,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2553,10 +2565,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2600,28 +2612,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2646,28 +2658,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2726,10 +2738,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2773,28 +2785,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2819,28 +2831,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2899,10 +2911,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2946,28 +2958,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2992,28 +3004,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3072,10 +3084,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3119,28 +3131,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3165,28 +3177,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3245,10 +3257,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3292,28 +3304,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3338,28 +3350,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3418,10 +3430,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3511,28 +3523,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3620,10 +3632,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3667,28 +3679,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3713,28 +3725,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3793,10 +3805,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3840,28 +3852,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3886,28 +3898,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3966,10 +3978,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4013,28 +4025,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4059,28 +4071,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4139,10 +4151,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4186,28 +4198,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4232,28 +4244,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4312,10 +4324,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4359,28 +4371,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4405,28 +4417,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4485,10 +4497,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4532,28 +4544,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4578,28 +4590,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4658,10 +4670,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4705,28 +4717,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4751,28 +4763,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4831,10 +4843,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4878,28 +4890,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4924,28 +4936,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5004,10 +5016,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5051,28 +5063,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5097,28 +5109,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5235,10 +5247,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5328,28 +5340,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5408,10 +5420,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5455,28 +5467,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5501,28 +5513,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5581,10 +5593,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5628,28 +5640,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5674,28 +5686,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5783,10 +5795,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5876,28 +5888,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5956,10 +5968,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6049,28 +6061,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6129,10 +6141,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6176,28 +6188,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6222,28 +6234,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6302,10 +6314,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6349,28 +6361,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6395,28 +6407,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6475,10 +6487,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6522,28 +6534,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6568,28 +6580,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6648,10 +6660,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6695,28 +6707,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6741,28 +6753,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6821,10 +6833,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6868,28 +6880,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6914,28 +6926,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6994,10 +7006,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7041,28 +7053,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7087,28 +7099,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7167,10 +7179,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7214,28 +7226,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7260,28 +7272,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7340,10 +7352,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7387,28 +7399,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7433,28 +7445,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7513,10 +7525,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7560,28 +7572,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7606,28 +7618,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7686,10 +7698,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7733,28 +7745,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7779,28 +7791,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7859,10 +7871,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7906,28 +7918,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7952,28 +7964,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8032,10 +8044,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8079,28 +8091,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8125,28 +8137,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8205,10 +8217,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8252,28 +8264,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8298,28 +8310,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8378,10 +8390,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8425,28 +8437,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8471,28 +8483,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8551,10 +8563,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8598,28 +8610,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8644,28 +8656,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8724,10 +8736,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8771,28 +8783,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8817,28 +8829,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8897,10 +8909,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8944,28 +8956,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8990,28 +9002,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9070,10 +9082,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9117,28 +9129,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9163,28 +9175,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9243,10 +9255,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9290,28 +9302,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9336,28 +9348,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9416,10 +9428,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9463,28 +9475,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9509,28 +9521,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9589,10 +9601,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9636,28 +9648,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9682,28 +9694,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9762,10 +9774,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9809,28 +9821,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9855,28 +9867,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9935,10 +9947,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9982,28 +9994,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10028,28 +10040,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10108,10 +10120,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10155,28 +10167,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10201,28 +10213,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10281,10 +10293,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10328,28 +10340,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10374,28 +10386,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10454,10 +10466,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10501,28 +10513,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10547,28 +10559,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10627,10 +10639,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10674,28 +10686,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10720,28 +10732,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10829,10 +10841,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10876,28 +10888,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10922,28 +10934,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11002,10 +11014,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11049,28 +11061,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11095,28 +11107,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11175,10 +11187,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11222,28 +11234,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11268,28 +11280,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11348,10 +11360,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="2" t="s">
+      <c r="J389" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11395,28 +11407,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="2">
+      <c r="A391" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="2">
+      <c r="C391" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11441,28 +11453,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="2">
+      <c r="C393" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="2">
+      <c r="D393" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="2">
+      <c r="I393" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11521,10 +11533,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="2" t="s">
+      <c r="J395" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11568,28 +11580,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="2">
+      <c r="A397" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="2">
+      <c r="C397" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11614,28 +11626,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="2">
+      <c r="C399" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="2">
+      <c r="D399" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="2">
+      <c r="I399" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11694,10 +11706,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="2" t="s">
+      <c r="J401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11741,28 +11753,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="2">
+      <c r="A403" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="2">
+      <c r="C403" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11787,28 +11799,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="2">
+      <c r="B405" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="2">
+      <c r="C405" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="2">
+      <c r="D405" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="2">
+      <c r="E405" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="2">
+      <c r="F405" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="2">
+      <c r="G405" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="2">
+      <c r="H405" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="2">
+      <c r="I405" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11867,10 +11879,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="2" t="s">
+      <c r="J407" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11914,28 +11926,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="2">
+      <c r="A409" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="2">
+      <c r="C409" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11960,28 +11972,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="2">
+      <c r="B411" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="2">
+      <c r="C411" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="2">
+      <c r="D411" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="2">
+      <c r="E411" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="2">
+      <c r="F411" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="2">
+      <c r="G411" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="2">
+      <c r="H411" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="2">
+      <c r="I411" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12040,10 +12052,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="2" t="s">
+      <c r="J413" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12087,28 +12099,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="2">
+      <c r="A415" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="2">
+      <c r="C415" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12133,28 +12145,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="2">
+      <c r="C417" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="2">
+      <c r="D417" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="2">
+      <c r="I417" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12271,10 +12283,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="2" t="s">
+      <c r="J421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
@@ -12318,28 +12330,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="s" s="2">
+      <c r="A423" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C423" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D423" t="s" s="2">
+      <c r="C423" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12364,28 +12376,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C425" t="s" s="2">
+      <c r="C425" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D425" t="s" s="2">
+      <c r="D425" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I425" t="s" s="2">
+      <c r="I425" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12444,10 +12456,10 @@
       <c r="I427">
         <f>((C427-C426)^2+(D427- D426)^2)^.5</f>
       </c>
-      <c r="J427" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K427" s="2" t="s">
+      <c r="J427" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K427" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L427" t="n">
@@ -12491,28 +12503,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="s" s="2">
+      <c r="A429" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B429" t="s" s="2">
+      <c r="B429" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C429" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D429" t="s" s="2">
+      <c r="C429" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D429" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E429" t="s" s="2">
+      <c r="E429" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F429" t="s" s="2">
+      <c r="F429" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G429" t="s" s="2">
+      <c r="G429" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H429" t="s" s="2">
+      <c r="H429" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12537,28 +12549,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="B431" t="s" s="2">
+      <c r="B431" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C431" t="s" s="2">
+      <c r="C431" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D431" t="s" s="2">
+      <c r="D431" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E431" t="s" s="2">
+      <c r="E431" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F431" t="s" s="2">
+      <c r="F431" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G431" t="s" s="2">
+      <c r="G431" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H431" t="s" s="2">
+      <c r="H431" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I431" t="s" s="2">
+      <c r="I431" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12617,10 +12629,10 @@
       <c r="I433">
         <f>((C433-C432)^2+(D433- D432)^2)^.5</f>
       </c>
-      <c r="J433" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K433" s="2" t="s">
+      <c r="J433" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K433" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L433" t="n">
@@ -12664,28 +12676,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="s" s="2">
+      <c r="A435" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B435" t="s" s="2">
+      <c r="B435" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C435" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D435" t="s" s="2">
+      <c r="C435" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D435" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E435" t="s" s="2">
+      <c r="E435" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F435" t="s" s="2">
+      <c r="F435" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G435" t="s" s="2">
+      <c r="G435" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H435" t="s" s="2">
+      <c r="H435" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12710,28 +12722,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="B437" t="s" s="2">
+      <c r="B437" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C437" t="s" s="2">
+      <c r="C437" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D437" t="s" s="2">
+      <c r="D437" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E437" t="s" s="2">
+      <c r="E437" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F437" t="s" s="2">
+      <c r="F437" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G437" t="s" s="2">
+      <c r="G437" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H437" t="s" s="2">
+      <c r="H437" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I437" t="s" s="2">
+      <c r="I437" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12790,10 +12802,10 @@
       <c r="I439">
         <f>((C439-C438)^2+(D439- D438)^2)^.5</f>
       </c>
-      <c r="J439" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K439" s="2" t="s">
+      <c r="J439" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K439" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L439" t="n">
@@ -12837,28 +12849,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="s" s="2">
+      <c r="A441" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B441" t="s" s="2">
+      <c r="B441" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C441" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D441" t="s" s="2">
+      <c r="C441" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D441" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E441" t="s" s="2">
+      <c r="E441" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F441" t="s" s="2">
+      <c r="F441" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G441" t="s" s="2">
+      <c r="G441" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H441" t="s" s="2">
+      <c r="H441" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12883,28 +12895,28 @@
       </c>
     </row>
     <row r="443">
-      <c r="B443" t="s" s="2">
+      <c r="B443" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C443" t="s" s="2">
+      <c r="C443" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D443" t="s" s="2">
+      <c r="D443" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E443" t="s" s="2">
+      <c r="E443" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F443" t="s" s="2">
+      <c r="F443" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G443" t="s" s="2">
+      <c r="G443" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H443" t="s" s="2">
+      <c r="H443" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I443" t="s" s="2">
+      <c r="I443" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12963,10 +12975,10 @@
       <c r="I445">
         <f>((C445-C444)^2+(D445- D444)^2)^.5</f>
       </c>
-      <c r="J445" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K445" s="2" t="s">
+      <c r="J445" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K445" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L445" t="n">
@@ -13010,28 +13022,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="s" s="2">
+      <c r="A447" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B447" t="s" s="2">
+      <c r="B447" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C447" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D447" t="s" s="2">
+      <c r="C447" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D447" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E447" t="s" s="2">
+      <c r="E447" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F447" t="s" s="2">
+      <c r="F447" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G447" t="s" s="2">
+      <c r="G447" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H447" t="s" s="2">
+      <c r="H447" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13056,28 +13068,28 @@
       </c>
     </row>
     <row r="449">
-      <c r="B449" t="s" s="2">
+      <c r="B449" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C449" t="s" s="2">
+      <c r="C449" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D449" t="s" s="2">
+      <c r="D449" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E449" t="s" s="2">
+      <c r="E449" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F449" t="s" s="2">
+      <c r="F449" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G449" t="s" s="2">
+      <c r="G449" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H449" t="s" s="2">
+      <c r="H449" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I449" t="s" s="2">
+      <c r="I449" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13136,10 +13148,10 @@
       <c r="I451">
         <f>((C451-C450)^2+(D451- D450)^2)^.5</f>
       </c>
-      <c r="J451" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K451" s="2" t="s">
+      <c r="J451" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K451" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L451" t="n">
@@ -13183,28 +13195,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="s" s="2">
+      <c r="A453" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B453" t="s" s="2">
+      <c r="B453" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C453" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D453" t="s" s="2">
+      <c r="C453" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D453" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E453" t="s" s="2">
+      <c r="E453" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F453" t="s" s="2">
+      <c r="F453" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G453" t="s" s="2">
+      <c r="G453" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H453" t="s" s="2">
+      <c r="H453" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13229,28 +13241,28 @@
       </c>
     </row>
     <row r="455">
-      <c r="B455" t="s" s="2">
+      <c r="B455" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C455" t="s" s="2">
+      <c r="C455" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D455" t="s" s="2">
+      <c r="D455" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E455" t="s" s="2">
+      <c r="E455" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F455" t="s" s="2">
+      <c r="F455" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G455" t="s" s="2">
+      <c r="G455" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H455" t="s" s="2">
+      <c r="H455" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I455" t="s" s="2">
+      <c r="I455" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13309,10 +13321,10 @@
       <c r="I457">
         <f>((C457-C456)^2+(D457- D456)^2)^.5</f>
       </c>
-      <c r="J457" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K457" s="2" t="s">
+      <c r="J457" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K457" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L457" t="n">
@@ -13356,28 +13368,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="s" s="2">
+      <c r="A459" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B459" t="s" s="2">
+      <c r="B459" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C459" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D459" t="s" s="2">
+      <c r="C459" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D459" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E459" t="s" s="2">
+      <c r="E459" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F459" t="s" s="2">
+      <c r="F459" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G459" t="s" s="2">
+      <c r="G459" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H459" t="s" s="2">
+      <c r="H459" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13402,28 +13414,28 @@
       </c>
     </row>
     <row r="461">
-      <c r="B461" t="s" s="2">
+      <c r="B461" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C461" t="s" s="2">
+      <c r="C461" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D461" t="s" s="2">
+      <c r="D461" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E461" t="s" s="2">
+      <c r="E461" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F461" t="s" s="2">
+      <c r="F461" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G461" t="s" s="2">
+      <c r="G461" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H461" t="s" s="2">
+      <c r="H461" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I461" t="s" s="2">
+      <c r="I461" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13482,10 +13494,10 @@
       <c r="I463">
         <f>((C463-C462)^2+(D463- D462)^2)^.5</f>
       </c>
-      <c r="J463" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K463" s="2" t="s">
+      <c r="J463" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K463" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L463" t="n">
@@ -13529,28 +13541,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="s" s="2">
+      <c r="A465" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B465" t="s" s="2">
+      <c r="B465" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C465" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D465" t="s" s="2">
+      <c r="C465" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D465" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E465" t="s" s="2">
+      <c r="E465" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F465" t="s" s="2">
+      <c r="F465" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G465" t="s" s="2">
+      <c r="G465" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H465" t="s" s="2">
+      <c r="H465" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13575,28 +13587,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="B467" t="s" s="2">
+      <c r="B467" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C467" t="s" s="2">
+      <c r="C467" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D467" t="s" s="2">
+      <c r="D467" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E467" t="s" s="2">
+      <c r="E467" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F467" t="s" s="2">
+      <c r="F467" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G467" t="s" s="2">
+      <c r="G467" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H467" t="s" s="2">
+      <c r="H467" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I467" t="s" s="2">
+      <c r="I467" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13655,10 +13667,10 @@
       <c r="I469">
         <f>((C469-C468)^2+(D469- D468)^2)^.5</f>
       </c>
-      <c r="J469" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K469" s="2" t="s">
+      <c r="J469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K469" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L469" t="n">
@@ -13702,28 +13714,28 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="s" s="2">
+      <c r="A471" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B471" t="s" s="2">
+      <c r="B471" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C471" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D471" t="s" s="2">
+      <c r="C471" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D471" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E471" t="s" s="2">
+      <c r="E471" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F471" t="s" s="2">
+      <c r="F471" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G471" t="s" s="2">
+      <c r="G471" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H471" t="s" s="2">
+      <c r="H471" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13748,28 +13760,28 @@
       </c>
     </row>
     <row r="473">
-      <c r="B473" t="s" s="2">
+      <c r="B473" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C473" t="s" s="2">
+      <c r="C473" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D473" t="s" s="2">
+      <c r="D473" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E473" t="s" s="2">
+      <c r="E473" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F473" t="s" s="2">
+      <c r="F473" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G473" t="s" s="2">
+      <c r="G473" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H473" t="s" s="2">
+      <c r="H473" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I473" t="s" s="2">
+      <c r="I473" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13828,10 +13840,10 @@
       <c r="I475">
         <f>((C475-C474)^2+(D475- D474)^2)^.5</f>
       </c>
-      <c r="J475" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K475" s="2" t="s">
+      <c r="J475" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K475" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L475" t="n">
@@ -13875,28 +13887,28 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="s" s="2">
+      <c r="A477" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B477" t="s" s="2">
+      <c r="B477" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C477" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D477" t="s" s="2">
+      <c r="C477" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D477" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E477" t="s" s="2">
+      <c r="E477" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F477" t="s" s="2">
+      <c r="F477" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G477" t="s" s="2">
+      <c r="G477" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H477" t="s" s="2">
+      <c r="H477" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13921,28 +13933,28 @@
       </c>
     </row>
     <row r="479">
-      <c r="B479" t="s" s="2">
+      <c r="B479" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C479" t="s" s="2">
+      <c r="C479" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D479" t="s" s="2">
+      <c r="D479" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E479" t="s" s="2">
+      <c r="E479" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F479" t="s" s="2">
+      <c r="F479" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G479" t="s" s="2">
+      <c r="G479" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H479" t="s" s="2">
+      <c r="H479" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I479" t="s" s="2">
+      <c r="I479" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14001,10 +14013,10 @@
       <c r="I481">
         <f>((C481-C480)^2+(D481- D480)^2)^.5</f>
       </c>
-      <c r="J481" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K481" s="2" t="s">
+      <c r="J481" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K481" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L481" t="n">
@@ -14048,28 +14060,28 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="s" s="2">
+      <c r="A483" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B483" t="s" s="2">
+      <c r="B483" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C483" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D483" t="s" s="2">
+      <c r="C483" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D483" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E483" t="s" s="2">
+      <c r="E483" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F483" t="s" s="2">
+      <c r="F483" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G483" t="s" s="2">
+      <c r="G483" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H483" t="s" s="2">
+      <c r="H483" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14094,28 +14106,28 @@
       </c>
     </row>
     <row r="485">
-      <c r="B485" t="s" s="2">
+      <c r="B485" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C485" t="s" s="2">
+      <c r="C485" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D485" t="s" s="2">
+      <c r="D485" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E485" t="s" s="2">
+      <c r="E485" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F485" t="s" s="2">
+      <c r="F485" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G485" t="s" s="2">
+      <c r="G485" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H485" t="s" s="2">
+      <c r="H485" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I485" t="s" s="2">
+      <c r="I485" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14174,10 +14186,10 @@
       <c r="I487">
         <f>((C487-C486)^2+(D487- D486)^2)^.5</f>
       </c>
-      <c r="J487" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K487" s="2" t="s">
+      <c r="J487" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K487" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L487" t="n">
@@ -14221,28 +14233,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="s" s="2">
+      <c r="A489" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B489" t="s" s="2">
+      <c r="B489" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C489" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D489" t="s" s="2">
+      <c r="C489" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D489" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E489" t="s" s="2">
+      <c r="E489" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F489" t="s" s="2">
+      <c r="F489" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G489" t="s" s="2">
+      <c r="G489" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H489" t="s" s="2">
+      <c r="H489" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14267,28 +14279,28 @@
       </c>
     </row>
     <row r="491">
-      <c r="B491" t="s" s="2">
+      <c r="B491" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C491" t="s" s="2">
+      <c r="C491" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D491" t="s" s="2">
+      <c r="D491" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E491" t="s" s="2">
+      <c r="E491" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F491" t="s" s="2">
+      <c r="F491" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G491" t="s" s="2">
+      <c r="G491" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H491" t="s" s="2">
+      <c r="H491" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I491" t="s" s="2">
+      <c r="I491" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14347,10 +14359,10 @@
       <c r="I493">
         <f>((C493-C492)^2+(D493- D492)^2)^.5</f>
       </c>
-      <c r="J493" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K493" s="2" t="s">
+      <c r="J493" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K493" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L493" t="n">
@@ -14394,28 +14406,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="s" s="2">
+      <c r="A495" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B495" t="s" s="2">
+      <c r="B495" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C495" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D495" t="s" s="2">
+      <c r="C495" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D495" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E495" t="s" s="2">
+      <c r="E495" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F495" t="s" s="2">
+      <c r="F495" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G495" t="s" s="2">
+      <c r="G495" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H495" t="s" s="2">
+      <c r="H495" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14440,28 +14452,28 @@
       </c>
     </row>
     <row r="497">
-      <c r="B497" t="s" s="2">
+      <c r="B497" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C497" t="s" s="2">
+      <c r="C497" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D497" t="s" s="2">
+      <c r="D497" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E497" t="s" s="2">
+      <c r="E497" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F497" t="s" s="2">
+      <c r="F497" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G497" t="s" s="2">
+      <c r="G497" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H497" t="s" s="2">
+      <c r="H497" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I497" t="s" s="2">
+      <c r="I497" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14520,10 +14532,10 @@
       <c r="I499">
         <f>((C499-C498)^2+(D499- D498)^2)^.5</f>
       </c>
-      <c r="J499" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K499" s="2" t="s">
+      <c r="J499" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K499" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L499" t="n">
@@ -14567,28 +14579,28 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="s" s="2">
+      <c r="A501" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B501" t="s" s="2">
+      <c r="B501" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C501" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D501" t="s" s="2">
+      <c r="C501" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D501" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E501" t="s" s="2">
+      <c r="E501" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F501" t="s" s="2">
+      <c r="F501" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G501" t="s" s="2">
+      <c r="G501" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H501" t="s" s="2">
+      <c r="H501" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14613,28 +14625,28 @@
       </c>
     </row>
     <row r="503">
-      <c r="B503" t="s" s="2">
+      <c r="B503" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C503" t="s" s="2">
+      <c r="C503" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D503" t="s" s="2">
+      <c r="D503" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E503" t="s" s="2">
+      <c r="E503" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F503" t="s" s="2">
+      <c r="F503" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G503" t="s" s="2">
+      <c r="G503" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H503" t="s" s="2">
+      <c r="H503" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I503" t="s" s="2">
+      <c r="I503" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14693,10 +14705,10 @@
       <c r="I505">
         <f>((C505-C504)^2+(D505- D504)^2)^.5</f>
       </c>
-      <c r="J505" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K505" s="2" t="s">
+      <c r="J505" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K505" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L505" t="n">
@@ -14740,28 +14752,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="2">
+      <c r="A507" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B507" t="s" s="2">
+      <c r="B507" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C507" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D507" t="s" s="2">
+      <c r="C507" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D507" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E507" t="s" s="2">
+      <c r="E507" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F507" t="s" s="2">
+      <c r="F507" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G507" t="s" s="2">
+      <c r="G507" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H507" t="s" s="2">
+      <c r="H507" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14786,28 +14798,28 @@
       </c>
     </row>
     <row r="509">
-      <c r="B509" t="s" s="2">
+      <c r="B509" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C509" t="s" s="2">
+      <c r="C509" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D509" t="s" s="2">
+      <c r="D509" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E509" t="s" s="2">
+      <c r="E509" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F509" t="s" s="2">
+      <c r="F509" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G509" t="s" s="2">
+      <c r="G509" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H509" t="s" s="2">
+      <c r="H509" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I509" t="s" s="2">
+      <c r="I509" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14866,10 +14878,10 @@
       <c r="I511">
         <f>((C511-C510)^2+(D511- D510)^2)^.5</f>
       </c>
-      <c r="J511" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K511" s="2" t="s">
+      <c r="J511" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K511" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L511" t="n">
@@ -14913,28 +14925,28 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="s" s="2">
+      <c r="A513" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B513" t="s" s="2">
+      <c r="B513" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C513" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D513" t="s" s="2">
+      <c r="C513" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D513" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E513" t="s" s="2">
+      <c r="E513" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F513" t="s" s="2">
+      <c r="F513" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G513" t="s" s="2">
+      <c r="G513" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H513" t="s" s="2">
+      <c r="H513" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14959,28 +14971,28 @@
       </c>
     </row>
     <row r="515">
-      <c r="B515" t="s" s="2">
+      <c r="B515" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C515" t="s" s="2">
+      <c r="C515" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D515" t="s" s="2">
+      <c r="D515" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E515" t="s" s="2">
+      <c r="E515" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F515" t="s" s="2">
+      <c r="F515" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G515" t="s" s="2">
+      <c r="G515" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H515" t="s" s="2">
+      <c r="H515" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I515" t="s" s="2">
+      <c r="I515" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15039,10 +15051,10 @@
       <c r="I517">
         <f>((C517-C516)^2+(D517- D516)^2)^.5</f>
       </c>
-      <c r="J517" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K517" s="2" t="s">
+      <c r="J517" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K517" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L517" t="n">
@@ -15086,28 +15098,28 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="s" s="2">
+      <c r="A519" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B519" t="s" s="2">
+      <c r="B519" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C519" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D519" t="s" s="2">
+      <c r="C519" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D519" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E519" t="s" s="2">
+      <c r="E519" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F519" t="s" s="2">
+      <c r="F519" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G519" t="s" s="2">
+      <c r="G519" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H519" t="s" s="2">
+      <c r="H519" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15132,28 +15144,28 @@
       </c>
     </row>
     <row r="521">
-      <c r="B521" t="s" s="2">
+      <c r="B521" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C521" t="s" s="2">
+      <c r="C521" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D521" t="s" s="2">
+      <c r="D521" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E521" t="s" s="2">
+      <c r="E521" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F521" t="s" s="2">
+      <c r="F521" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G521" t="s" s="2">
+      <c r="G521" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H521" t="s" s="2">
+      <c r="H521" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I521" t="s" s="2">
+      <c r="I521" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15212,10 +15224,10 @@
       <c r="I523">
         <f>((C523-C522)^2+(D523- D522)^2)^.5</f>
       </c>
-      <c r="J523" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K523" s="2" t="s">
+      <c r="J523" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K523" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L523" t="n">
@@ -15259,28 +15271,28 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="2">
+      <c r="A525" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B525" t="s" s="2">
+      <c r="B525" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C525" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D525" t="s" s="2">
+      <c r="C525" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E525" t="s" s="2">
+      <c r="E525" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F525" t="s" s="2">
+      <c r="F525" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G525" t="s" s="2">
+      <c r="G525" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H525" t="s" s="2">
+      <c r="H525" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15305,28 +15317,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="B527" t="s" s="2">
+      <c r="B527" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C527" t="s" s="2">
+      <c r="C527" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D527" t="s" s="2">
+      <c r="D527" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E527" t="s" s="2">
+      <c r="E527" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F527" t="s" s="2">
+      <c r="F527" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G527" t="s" s="2">
+      <c r="G527" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H527" t="s" s="2">
+      <c r="H527" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I527" t="s" s="2">
+      <c r="I527" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15385,10 +15397,10 @@
       <c r="I529">
         <f>((C529-C528)^2+(D529- D528)^2)^.5</f>
       </c>
-      <c r="J529" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K529" s="2" t="s">
+      <c r="J529" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L529" t="n">
@@ -15432,28 +15444,28 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="2">
+      <c r="A531" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B531" t="s" s="2">
+      <c r="B531" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C531" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D531" t="s" s="2">
+      <c r="C531" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D531" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E531" t="s" s="2">
+      <c r="E531" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F531" t="s" s="2">
+      <c r="F531" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G531" t="s" s="2">
+      <c r="G531" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H531" t="s" s="2">
+      <c r="H531" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15478,28 +15490,28 @@
       </c>
     </row>
     <row r="533">
-      <c r="B533" t="s" s="2">
+      <c r="B533" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C533" t="s" s="2">
+      <c r="C533" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D533" t="s" s="2">
+      <c r="D533" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E533" t="s" s="2">
+      <c r="E533" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F533" t="s" s="2">
+      <c r="F533" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G533" t="s" s="2">
+      <c r="G533" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H533" t="s" s="2">
+      <c r="H533" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I533" t="s" s="2">
+      <c r="I533" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15558,10 +15570,10 @@
       <c r="I535">
         <f>((C535-C534)^2+(D535- D534)^2)^.5</f>
       </c>
-      <c r="J535" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K535" s="2" t="s">
+      <c r="J535" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K535" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L535" t="n">
@@ -15605,28 +15617,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="s" s="2">
+      <c r="A537" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B537" t="s" s="2">
+      <c r="B537" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C537" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D537" t="s" s="2">
+      <c r="C537" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E537" t="s" s="2">
+      <c r="E537" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F537" t="s" s="2">
+      <c r="F537" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G537" t="s" s="2">
+      <c r="G537" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H537" t="s" s="2">
+      <c r="H537" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15651,28 +15663,28 @@
       </c>
     </row>
     <row r="539">
-      <c r="B539" t="s" s="2">
+      <c r="B539" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C539" t="s" s="2">
+      <c r="C539" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D539" t="s" s="2">
+      <c r="D539" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E539" t="s" s="2">
+      <c r="E539" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F539" t="s" s="2">
+      <c r="F539" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G539" t="s" s="2">
+      <c r="G539" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H539" t="s" s="2">
+      <c r="H539" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I539" t="s" s="2">
+      <c r="I539" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15731,10 +15743,10 @@
       <c r="I541">
         <f>((C541-C540)^2+(D541- D540)^2)^.5</f>
       </c>
-      <c r="J541" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K541" s="2" t="s">
+      <c r="J541" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K541" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L541" t="n">
